--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-8725BKB.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-8725BKB.xlsx
@@ -49,7 +49,7 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>20-12-2017</t>
+    <t>28-12-2017</t>
   </si>
 </sst>
 </file>
